--- a/docs/Efficiency.xlsx
+++ b/docs/Efficiency.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="11">
   <si>
     <t>-</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Média</t>
-  </si>
-  <si>
     <t>Veículo</t>
   </si>
 </sst>
@@ -66,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,14 +88,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -133,7 +122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -151,17 +140,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -420,8 +398,28 @@
       <right style="thick">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -433,6 +431,32 @@
       <right style="thick">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -444,22 +468,42 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
@@ -470,63 +514,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -535,27 +549,109 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,8 +661,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE60000"/>
+      <color rgb="FFFF9393"/>
+      <color rgb="FFFF8181"/>
+      <color rgb="FFFF6969"/>
       <color rgb="FFFFA7A7"/>
-      <color rgb="FFFF6969"/>
     </mruColors>
   </colors>
   <extLst>
@@ -612,7 +711,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Eficiência por tipo de carro</a:t>
+              <a:t>Eficiência por tipo de veículo</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -652,7 +751,7 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -669,21 +768,24 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent6">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
                     <a:lumMod val="110000"/>
                     <a:satMod val="105000"/>
                     <a:tint val="67000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent6">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
                     <a:lumMod val="105000"/>
                     <a:satMod val="103000"/>
                     <a:tint val="73000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
                     <a:lumMod val="105000"/>
                     <a:satMod val="109000"/>
                     <a:tint val="81000"/>
@@ -694,7 +796,8 @@
             </a:gradFill>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent6">
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
                   <a:shade val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -708,8 +811,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="8.3623693379790948E-2"/>
+                  <c:x val="-2.7342456736241748E-17"/>
+                  <c:y val="9.7560975609756059E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -723,7 +826,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000014-9CF5-44C0-A09B-335185EE9A4B}"/>
+                  <c16:uniqueId val="{00000008-E3E2-4985-B153-2FF0F55560C5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -735,14 +838,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -779,27 +881,47 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Compact</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pick-up</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sedan</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SUV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$3</c:f>
+              <c:f>Sheet1!$I$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.92709355573879415</c:v>
+                  <c:v>0.92709355573879426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9CF5-44C0-A09B-335185EE9A4B}"/>
+              <c16:uniqueId val="{00000004-9CF5-44C0-A09B-335185EE9A4B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$8</c:f>
@@ -858,8 +980,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.7651325621222607E-17"/>
-                  <c:y val="8.3623693379790948E-2"/>
+                  <c:x val="-5.4684913472483496E-17"/>
+                  <c:y val="9.2915214866434337E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -885,7 +1007,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -910,6 +1034,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -927,9 +1052,29 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Compact</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pick-up</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sedan</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SUV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$8</c:f>
+              <c:f>Sheet1!$I$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -946,8 +1091,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
+          <c:idx val="6"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$13</c:f>
@@ -963,24 +1108,27 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent5">
+                  <a:schemeClr val="accent6">
                     <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
                     <a:lumMod val="110000"/>
                     <a:satMod val="105000"/>
                     <a:tint val="67000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
+                  <a:schemeClr val="accent6">
                     <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
                     <a:lumMod val="105000"/>
                     <a:satMod val="103000"/>
                     <a:tint val="73000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
+                  <a:schemeClr val="accent6">
                     <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
                     <a:lumMod val="105000"/>
                     <a:satMod val="109000"/>
                     <a:tint val="81000"/>
@@ -991,8 +1139,9 @@
             </a:gradFill>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent6">
                   <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
                   <a:shade val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -1006,8 +1155,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.1530265124244521E-16"/>
-                  <c:y val="8.8269454123112656E-2"/>
+                  <c:x val="0"/>
+                  <c:y val="9.7560975609756101E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -1021,7 +1170,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-9CF5-44C0-A09B-335185EE9A4B}"/>
+                  <c16:uniqueId val="{00000009-E3E2-4985-B153-2FF0F55560C5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1033,7 +1182,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1058,6 +1209,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1075,27 +1227,47 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Compact</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pick-up</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sedan</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SUV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$13</c:f>
+              <c:f>Sheet1!$I$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.9443699174349609</c:v>
+                  <c:v>0.94436991743496113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-9CF5-44C0-A09B-335185EE9A4B}"/>
+              <c16:uniqueId val="{00000006-9CF5-44C0-A09B-335185EE9A4B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
+          <c:idx val="7"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$18</c:f>
@@ -1113,45 +1285,20 @@
             </a:solidFill>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="50000"/>
-                  <a:shade val="95000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF6969"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFA7A7"/>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-9CF5-44C0-A09B-335185EE9A4B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="8.3623693379790948E-2"/>
+                  <c:y val="9.7560975609756101E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -1165,7 +1312,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000017-9CF5-44C0-A09B-335185EE9A4B}"/>
+                  <c16:uniqueId val="{0000000A-E3E2-4985-B153-2FF0F55560C5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1177,7 +1324,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1202,6 +1351,388 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Compact</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pick-up</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sedan</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SUV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.91202314649295202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9CF5-44C0-A09B-335185EE9A4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="462209680"/>
+        <c:axId val="462211976"/>
+        <c:extLst/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="462209680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="462211976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="462211976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462209680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Eficiência por vista</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Front</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF9393"/>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="E60000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7342456736241748E-17"/>
+                  <c:y val="9.2592592592592587E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-095E-4455-B5A5-7E6CF1656B43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1221,19 +1752,464 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$18</c:f>
+              <c:f>Sheet1!$D$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.91202314649295202</c:v>
+                  <c:v>0.94456101130506076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-9CF5-44C0-A09B-335185EE9A4B}"/>
+              <c16:uniqueId val="{00000009-095E-4455-B5A5-7E6CF1656B43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Back</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4684913472483496E-17"/>
+                  <c:y val="9.7222222222222265E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-095E-4455-B5A5-7E6CF1656B43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.93697995383476995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-095E-4455-B5A5-7E6CF1656B43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Side</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="9.7222222222222224E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-095E-4455-B5A5-7E6CF1656B43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.89253311756477527</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-095E-4455-B5A5-7E6CF1656B43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="9.2592592592592629E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-095E-4455-B5A5-7E6CF1656B43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.91656537570836638</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-095E-4455-B5A5-7E6CF1656B43}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1249,1388 +2225,19 @@
         <c:overlap val="-24"/>
         <c:axId val="462209680"/>
         <c:axId val="462211976"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:gradFill rotWithShape="1">
-                    <a:gsLst>
-                      <a:gs pos="0">
-                        <a:schemeClr val="accent5">
-                          <a:lumMod val="110000"/>
-                          <a:satMod val="105000"/>
-                          <a:tint val="67000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="50000">
-                        <a:schemeClr val="accent5">
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="103000"/>
-                          <a:tint val="73000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="100000">
-                        <a:schemeClr val="accent5">
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="109000"/>
-                          <a:tint val="81000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                    </a:gsLst>
-                    <a:lin ang="5400000" scaled="0"/>
-                  </a:gradFill>
-                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                    <a:solidFill>
-                      <a:schemeClr val="accent5">
-                        <a:shade val="95000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="1"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-9CF5-44C0-A09B-335185EE9A4B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:gradFill rotWithShape="1">
-                    <a:gsLst>
-                      <a:gs pos="0">
-                        <a:schemeClr val="accent4">
-                          <a:lumMod val="110000"/>
-                          <a:satMod val="105000"/>
-                          <a:tint val="67000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="50000">
-                        <a:schemeClr val="accent4">
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="103000"/>
-                          <a:tint val="73000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="100000">
-                        <a:schemeClr val="accent4">
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="109000"/>
-                          <a:tint val="81000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                    </a:gsLst>
-                    <a:lin ang="5400000" scaled="0"/>
-                  </a:gradFill>
-                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4">
-                        <a:shade val="95000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="1"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-9CF5-44C0-A09B-335185EE9A4B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$6</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:gradFill rotWithShape="1">
-                    <a:gsLst>
-                      <a:gs pos="0">
-                        <a:schemeClr val="accent6">
-                          <a:lumMod val="60000"/>
-                          <a:lumMod val="110000"/>
-                          <a:satMod val="105000"/>
-                          <a:tint val="67000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="50000">
-                        <a:schemeClr val="accent6">
-                          <a:lumMod val="60000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="103000"/>
-                          <a:tint val="73000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="100000">
-                        <a:schemeClr val="accent6">
-                          <a:lumMod val="60000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="109000"/>
-                          <a:tint val="81000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                    </a:gsLst>
-                    <a:lin ang="5400000" scaled="0"/>
-                  </a:gradFill>
-                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6">
-                        <a:lumMod val="60000"/>
-                        <a:shade val="95000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$6</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="1"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-9CF5-44C0-A09B-335185EE9A4B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:gradFill rotWithShape="1">
-                    <a:gsLst>
-                      <a:gs pos="0">
-                        <a:schemeClr val="accent5">
-                          <a:lumMod val="60000"/>
-                          <a:lumMod val="110000"/>
-                          <a:satMod val="105000"/>
-                          <a:tint val="67000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="50000">
-                        <a:schemeClr val="accent5">
-                          <a:lumMod val="60000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="103000"/>
-                          <a:tint val="73000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="100000">
-                        <a:schemeClr val="accent5">
-                          <a:lumMod val="60000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="109000"/>
-                          <a:tint val="81000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                    </a:gsLst>
-                    <a:lin ang="5400000" scaled="0"/>
-                  </a:gradFill>
-                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                    <a:solidFill>
-                      <a:schemeClr val="accent5">
-                        <a:lumMod val="60000"/>
-                        <a:shade val="95000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="1"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-9CF5-44C0-A09B-335185EE9A4B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:gradFill rotWithShape="1">
-                    <a:gsLst>
-                      <a:gs pos="0">
-                        <a:schemeClr val="accent6">
-                          <a:lumMod val="80000"/>
-                          <a:lumOff val="20000"/>
-                          <a:lumMod val="110000"/>
-                          <a:satMod val="105000"/>
-                          <a:tint val="67000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="50000">
-                        <a:schemeClr val="accent6">
-                          <a:lumMod val="80000"/>
-                          <a:lumOff val="20000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="103000"/>
-                          <a:tint val="73000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="100000">
-                        <a:schemeClr val="accent6">
-                          <a:lumMod val="80000"/>
-                          <a:lumOff val="20000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="109000"/>
-                          <a:tint val="81000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                    </a:gsLst>
-                    <a:lin ang="5400000" scaled="0"/>
-                  </a:gradFill>
-                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
-                        <a:shade val="95000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$9</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="1"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-9CF5-44C0-A09B-335185EE9A4B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:gradFill rotWithShape="1">
-                    <a:gsLst>
-                      <a:gs pos="0">
-                        <a:schemeClr val="accent5">
-                          <a:lumMod val="80000"/>
-                          <a:lumOff val="20000"/>
-                          <a:lumMod val="110000"/>
-                          <a:satMod val="105000"/>
-                          <a:tint val="67000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="50000">
-                        <a:schemeClr val="accent5">
-                          <a:lumMod val="80000"/>
-                          <a:lumOff val="20000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="103000"/>
-                          <a:tint val="73000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="100000">
-                        <a:schemeClr val="accent5">
-                          <a:lumMod val="80000"/>
-                          <a:lumOff val="20000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="109000"/>
-                          <a:tint val="81000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                    </a:gsLst>
-                    <a:lin ang="5400000" scaled="0"/>
-                  </a:gradFill>
-                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                    <a:solidFill>
-                      <a:schemeClr val="accent5">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
-                        <a:shade val="95000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="1"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000007-9CF5-44C0-A09B-335185EE9A4B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="8"/>
-                <c:order val="8"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:gradFill rotWithShape="1">
-                    <a:gsLst>
-                      <a:gs pos="0">
-                        <a:schemeClr val="accent4">
-                          <a:lumMod val="80000"/>
-                          <a:lumOff val="20000"/>
-                          <a:lumMod val="110000"/>
-                          <a:satMod val="105000"/>
-                          <a:tint val="67000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="50000">
-                        <a:schemeClr val="accent4">
-                          <a:lumMod val="80000"/>
-                          <a:lumOff val="20000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="103000"/>
-                          <a:tint val="73000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="100000">
-                        <a:schemeClr val="accent4">
-                          <a:lumMod val="80000"/>
-                          <a:lumOff val="20000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="109000"/>
-                          <a:tint val="81000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                    </a:gsLst>
-                    <a:lin ang="5400000" scaled="0"/>
-                  </a:gradFill>
-                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
-                        <a:shade val="95000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="1"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000008-9CF5-44C0-A09B-335185EE9A4B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="9"/>
-                <c:order val="9"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:gradFill rotWithShape="1">
-                    <a:gsLst>
-                      <a:gs pos="0">
-                        <a:schemeClr val="accent6">
-                          <a:lumMod val="80000"/>
-                          <a:lumMod val="110000"/>
-                          <a:satMod val="105000"/>
-                          <a:tint val="67000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="50000">
-                        <a:schemeClr val="accent6">
-                          <a:lumMod val="80000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="103000"/>
-                          <a:tint val="73000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="100000">
-                        <a:schemeClr val="accent6">
-                          <a:lumMod val="80000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="109000"/>
-                          <a:tint val="81000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                    </a:gsLst>
-                    <a:lin ang="5400000" scaled="0"/>
-                  </a:gradFill>
-                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6">
-                        <a:lumMod val="80000"/>
-                        <a:shade val="95000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="1"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000009-9CF5-44C0-A09B-335185EE9A4B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="11"/>
-                <c:order val="11"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$14</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:gradFill rotWithShape="1">
-                    <a:gsLst>
-                      <a:gs pos="0">
-                        <a:schemeClr val="accent4">
-                          <a:lumMod val="80000"/>
-                          <a:lumMod val="110000"/>
-                          <a:satMod val="105000"/>
-                          <a:tint val="67000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="50000">
-                        <a:schemeClr val="accent4">
-                          <a:lumMod val="80000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="103000"/>
-                          <a:tint val="73000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="100000">
-                        <a:schemeClr val="accent4">
-                          <a:lumMod val="80000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="109000"/>
-                          <a:tint val="81000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                    </a:gsLst>
-                    <a:lin ang="5400000" scaled="0"/>
-                  </a:gradFill>
-                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4">
-                        <a:lumMod val="80000"/>
-                        <a:shade val="95000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$14</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="1"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000B-9CF5-44C0-A09B-335185EE9A4B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="12"/>
-                <c:order val="12"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$15</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:gradFill rotWithShape="1">
-                    <a:gsLst>
-                      <a:gs pos="0">
-                        <a:schemeClr val="accent6">
-                          <a:lumMod val="60000"/>
-                          <a:lumOff val="40000"/>
-                          <a:lumMod val="110000"/>
-                          <a:satMod val="105000"/>
-                          <a:tint val="67000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="50000">
-                        <a:schemeClr val="accent6">
-                          <a:lumMod val="60000"/>
-                          <a:lumOff val="40000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="103000"/>
-                          <a:tint val="73000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="100000">
-                        <a:schemeClr val="accent6">
-                          <a:lumMod val="60000"/>
-                          <a:lumOff val="40000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="109000"/>
-                          <a:tint val="81000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                    </a:gsLst>
-                    <a:lin ang="5400000" scaled="0"/>
-                  </a:gradFill>
-                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6">
-                        <a:lumMod val="60000"/>
-                        <a:lumOff val="40000"/>
-                        <a:shade val="95000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$15</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="1"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000C-9CF5-44C0-A09B-335185EE9A4B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="13"/>
-                <c:order val="13"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$16</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:gradFill rotWithShape="1">
-                    <a:gsLst>
-                      <a:gs pos="0">
-                        <a:schemeClr val="accent5">
-                          <a:lumMod val="60000"/>
-                          <a:lumOff val="40000"/>
-                          <a:lumMod val="110000"/>
-                          <a:satMod val="105000"/>
-                          <a:tint val="67000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="50000">
-                        <a:schemeClr val="accent5">
-                          <a:lumMod val="60000"/>
-                          <a:lumOff val="40000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="103000"/>
-                          <a:tint val="73000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="100000">
-                        <a:schemeClr val="accent5">
-                          <a:lumMod val="60000"/>
-                          <a:lumOff val="40000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="109000"/>
-                          <a:tint val="81000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                    </a:gsLst>
-                    <a:lin ang="5400000" scaled="0"/>
-                  </a:gradFill>
-                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                    <a:solidFill>
-                      <a:schemeClr val="accent5">
-                        <a:lumMod val="60000"/>
-                        <a:lumOff val="40000"/>
-                        <a:shade val="95000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$16</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="1"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000D-9CF5-44C0-A09B-335185EE9A4B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="14"/>
-                <c:order val="14"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$17</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:gradFill rotWithShape="1">
-                    <a:gsLst>
-                      <a:gs pos="0">
-                        <a:schemeClr val="accent4">
-                          <a:lumMod val="60000"/>
-                          <a:lumOff val="40000"/>
-                          <a:lumMod val="110000"/>
-                          <a:satMod val="105000"/>
-                          <a:tint val="67000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="50000">
-                        <a:schemeClr val="accent4">
-                          <a:lumMod val="60000"/>
-                          <a:lumOff val="40000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="103000"/>
-                          <a:tint val="73000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="100000">
-                        <a:schemeClr val="accent4">
-                          <a:lumMod val="60000"/>
-                          <a:lumOff val="40000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="109000"/>
-                          <a:tint val="81000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                    </a:gsLst>
-                    <a:lin ang="5400000" scaled="0"/>
-                  </a:gradFill>
-                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4">
-                        <a:lumMod val="60000"/>
-                        <a:lumOff val="40000"/>
-                        <a:shade val="95000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$17</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="1"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000E-9CF5-44C0-A09B-335185EE9A4B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="16"/>
-                <c:order val="16"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$19</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:gradFill rotWithShape="1">
-                    <a:gsLst>
-                      <a:gs pos="0">
-                        <a:schemeClr val="accent5">
-                          <a:lumMod val="50000"/>
-                          <a:lumMod val="110000"/>
-                          <a:satMod val="105000"/>
-                          <a:tint val="67000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="50000">
-                        <a:schemeClr val="accent5">
-                          <a:lumMod val="50000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="103000"/>
-                          <a:tint val="73000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="100000">
-                        <a:schemeClr val="accent5">
-                          <a:lumMod val="50000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="109000"/>
-                          <a:tint val="81000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                    </a:gsLst>
-                    <a:lin ang="5400000" scaled="0"/>
-                  </a:gradFill>
-                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                    <a:solidFill>
-                      <a:schemeClr val="accent5">
-                        <a:lumMod val="50000"/>
-                        <a:shade val="95000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$19</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="1"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000010-9CF5-44C0-A09B-335185EE9A4B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="17"/>
-                <c:order val="17"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:gradFill rotWithShape="1">
-                    <a:gsLst>
-                      <a:gs pos="0">
-                        <a:schemeClr val="accent4">
-                          <a:lumMod val="50000"/>
-                          <a:lumMod val="110000"/>
-                          <a:satMod val="105000"/>
-                          <a:tint val="67000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="50000">
-                        <a:schemeClr val="accent4">
-                          <a:lumMod val="50000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="103000"/>
-                          <a:tint val="73000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="100000">
-                        <a:schemeClr val="accent4">
-                          <a:lumMod val="50000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="109000"/>
-                          <a:tint val="81000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                    </a:gsLst>
-                    <a:lin ang="5400000" scaled="0"/>
-                  </a:gradFill>
-                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4">
-                        <a:lumMod val="50000"/>
-                        <a:shade val="95000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="1"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000011-9CF5-44C0-A09B-335185EE9A4B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="18"/>
-                <c:order val="18"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$21</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:gradFill rotWithShape="1">
-                    <a:gsLst>
-                      <a:gs pos="0">
-                        <a:schemeClr val="accent6">
-                          <a:lumMod val="70000"/>
-                          <a:lumOff val="30000"/>
-                          <a:lumMod val="110000"/>
-                          <a:satMod val="105000"/>
-                          <a:tint val="67000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="50000">
-                        <a:schemeClr val="accent6">
-                          <a:lumMod val="70000"/>
-                          <a:lumOff val="30000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="103000"/>
-                          <a:tint val="73000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="100000">
-                        <a:schemeClr val="accent6">
-                          <a:lumMod val="70000"/>
-                          <a:lumOff val="30000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="109000"/>
-                          <a:tint val="81000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                    </a:gsLst>
-                    <a:lin ang="5400000" scaled="0"/>
-                  </a:gradFill>
-                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6">
-                        <a:lumMod val="70000"/>
-                        <a:lumOff val="30000"/>
-                        <a:shade val="95000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$21</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="1"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000012-9CF5-44C0-A09B-335185EE9A4B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="19"/>
-                <c:order val="19"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:gradFill rotWithShape="1">
-                    <a:gsLst>
-                      <a:gs pos="0">
-                        <a:schemeClr val="accent5">
-                          <a:lumMod val="70000"/>
-                          <a:lumOff val="30000"/>
-                          <a:lumMod val="110000"/>
-                          <a:satMod val="105000"/>
-                          <a:tint val="67000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="50000">
-                        <a:schemeClr val="accent5">
-                          <a:lumMod val="70000"/>
-                          <a:lumOff val="30000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="103000"/>
-                          <a:tint val="73000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="100000">
-                        <a:schemeClr val="accent5">
-                          <a:lumMod val="70000"/>
-                          <a:lumOff val="30000"/>
-                          <a:lumMod val="105000"/>
-                          <a:satMod val="109000"/>
-                          <a:tint val="81000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                    </a:gsLst>
-                    <a:lin ang="5400000" scaled="0"/>
-                  </a:gradFill>
-                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                    <a:solidFill>
-                      <a:schemeClr val="accent5">
-                        <a:lumMod val="70000"/>
-                        <a:lumOff val="30000"/>
-                        <a:shade val="95000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="1"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000013-9CF5-44C0-A09B-335185EE9A4B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:barChart>
       <c:catAx>
         <c:axId val="462209680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="462211976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -2811,6 +2418,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
@@ -3336,20 +2980,545 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3363,6 +3532,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3634,547 +3835,649 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I24"/>
+  <dimension ref="B1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20">
+      <c r="B2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="8">
         <v>2</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="8">
         <v>3</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="8">
         <v>4</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="7">
         <v>5</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="19">
         <v>0.96104813840863801</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="20">
         <v>0.92688628727746702</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="20">
         <v>0.96309628961231197</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="20">
         <v>0.95702985878162905</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="13">
-        <f>AVERAGE(D3:G6)</f>
-        <v>0.92709355573879415</v>
+      <c r="I3" s="26">
+        <f>AVERAGE(D3:G3)</f>
+        <v>0.95201514352001149</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="19">
         <v>0.93046276725685295</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="20">
         <v>0.901386773043519</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="20">
         <v>0.92610404834988203</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="20">
         <v>0.93330904513096702</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="26">
+        <f t="shared" ref="I4:I6" si="0">AVERAGE(D4:G4)</f>
+        <v>0.92281565844530522</v>
+      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="19">
         <v>0.88867197876806903</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="20">
         <v>0.89445460377153996</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="20">
         <v>0.93676903802526001</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="20">
         <v>0.92693056856982703</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="26">
+        <f t="shared" si="0"/>
+        <v>0.91170654728367406</v>
+      </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="19">
         <v>0.94960046672684595</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="20">
         <v>0.88650808062466002</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="20">
         <v>0.89103127584431296</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="20">
         <v>0.96020767162892695</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="I6" s="26">
+        <f t="shared" si="0"/>
+        <v>0.92183687370618639</v>
+      </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="27"/>
-      <c r="C7" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="15"/>
+      <c r="C7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="21">
         <f>AVERAGE(D3:D6)</f>
         <v>0.93244583779010148</v>
       </c>
-      <c r="E7" s="1">
-        <f t="shared" ref="E7:G7" si="0">AVERAGE(E3:E6)</f>
+      <c r="E7" s="22">
+        <f t="shared" ref="E7:G7" si="1">AVERAGE(E3:E6)</f>
         <v>0.90230893617929642</v>
       </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
+      <c r="F7" s="22">
+        <f t="shared" si="1"/>
         <v>0.92925016295794183</v>
       </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
+      <c r="G7" s="22">
+        <f t="shared" si="1"/>
         <v>0.94436928602783765</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="27">
+        <f>AVERAGE(D7:G7)</f>
+        <v>0.92709355573879426</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="23">
         <v>0.95809263685332102</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="24">
         <v>0.87756657310534603</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="24">
         <v>0.94015158887461303</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="15">
-        <f>AVERAGE(D8:F11)</f>
-        <v>0.89474714585003301</v>
+      <c r="I8" s="28">
+        <f>AVERAGE(D8:F8)</f>
+        <v>0.9252702662777601</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="19">
         <v>0.87813727145597098</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="20">
         <v>0.90518504732009197</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="20">
         <v>0.95558970661708398</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="13"/>
+      <c r="I9" s="26">
+        <f t="shared" ref="I9:I12" si="2">AVERAGE(D9:F9)</f>
+        <v>0.91297067513104901</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="19">
         <v>0.78790390262434695</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="20">
         <v>0.80050917757567996</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="20">
         <v>0.93820596630263797</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="26">
+        <f t="shared" si="2"/>
+        <v>0.84220634883422163</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="19">
         <v>0.82083310864140602</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="20">
         <v>0.913765310518031</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="20">
         <v>0.96102546031186697</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="26">
+        <f t="shared" si="2"/>
+        <v>0.89854129315710141</v>
+      </c>
     </row>
     <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="27"/>
-      <c r="C12" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="15"/>
+      <c r="C12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="21">
         <f>AVERAGE(D8:D11)</f>
         <v>0.86124172989376124</v>
       </c>
-      <c r="E12" s="1">
-        <f t="shared" ref="E12:F12" si="1">AVERAGE(E8:E11)</f>
+      <c r="E12" s="22">
+        <f t="shared" ref="E12:F12" si="3">AVERAGE(E8:E11)</f>
         <v>0.87425652712978719</v>
       </c>
-      <c r="F12" s="1">
-        <f t="shared" si="1"/>
+      <c r="F12" s="22">
+        <f t="shared" si="3"/>
         <v>0.94874318052655049</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="27">
+        <f t="shared" si="2"/>
+        <v>0.89474714585003301</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="23">
         <v>0.97950073542268801</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="24">
         <v>0.96253228150887005</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="24">
         <v>0.97885596266417196</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="24">
         <v>0.98076686207531605</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="23">
         <v>0.94905615889263395</v>
       </c>
-      <c r="I13" s="15">
-        <f>AVERAGE(D13:H16)</f>
-        <v>0.9443699174349609</v>
+      <c r="I13" s="29">
+        <f>AVERAGE(D13:H13)</f>
+        <v>0.97014240011273611</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="19">
         <v>0.98403131092545204</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="20">
         <v>0.892676884912466</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="20">
         <v>0.96215276001432504</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="20">
         <v>0.98978523802139895</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="19">
         <v>0.90968844485342504</v>
       </c>
-      <c r="I14" s="13"/>
+      <c r="I14" s="30">
+        <f t="shared" ref="I14:I17" si="4">AVERAGE(D14:H14)</f>
+        <v>0.94766692774541339</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
-      <c r="C15" s="25" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="19">
         <v>0.95445676743793895</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="20">
         <v>0.938878424987726</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="20">
         <v>0.94444044072075295</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="20">
         <v>0.82295545574366302</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="19">
         <v>0.92802762518875603</v>
       </c>
-      <c r="I15" s="13"/>
+      <c r="I15" s="30">
+        <f t="shared" si="4"/>
+        <v>0.91775174281576744</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
-      <c r="C16" s="26" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="19">
         <v>0.93345883550825104</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="20">
         <v>0.97427259759432405</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="20">
         <v>0.97188622685979698</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="20">
         <v>0.97412852034577602</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="19">
         <v>0.85584681502148796</v>
       </c>
-      <c r="I16" s="13"/>
+      <c r="I16" s="30">
+        <f t="shared" si="4"/>
+        <v>0.94191859906592723</v>
+      </c>
     </row>
     <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
-      <c r="C17" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="B17" s="15"/>
+      <c r="C17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="21">
         <f>AVERAGE(D13:D16)</f>
         <v>0.96286191232358243</v>
       </c>
-      <c r="E17" s="1">
-        <f t="shared" ref="E17:G17" si="2">AVERAGE(E13:E16)</f>
+      <c r="E17" s="22">
+        <f t="shared" ref="E17:G17" si="5">AVERAGE(E13:E16)</f>
         <v>0.94209004725084666</v>
       </c>
-      <c r="F17" s="1">
-        <f t="shared" si="2"/>
+      <c r="F17" s="22">
+        <f t="shared" si="5"/>
         <v>0.96433384756476181</v>
       </c>
-      <c r="G17" s="1">
-        <f t="shared" si="2"/>
+      <c r="G17" s="22">
+        <f t="shared" si="5"/>
         <v>0.94190901904653856</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="21">
         <f>AVERAGE(H13:H16)</f>
         <v>0.91065476098907583</v>
       </c>
-      <c r="I17" s="14"/>
+      <c r="I17" s="31">
+        <f t="shared" si="4"/>
+        <v>0.94436991743496113</v>
+      </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="23">
         <v>0.95960240640802397</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="24">
         <v>0.96165227613604098</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="24">
         <v>0.94216081477745695</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="24">
         <v>0.81497731008244301</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="15">
-        <f>AVERAGE(D18:G21)</f>
-        <v>0.91202314649295202</v>
+      <c r="I18" s="28">
+        <f>AVERAGE(D18:G18)</f>
+        <v>0.91959820185099128</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="19">
         <v>0.944464243202493</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="20">
         <v>0.95461724492254796</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="20">
         <v>0.93483161236972201</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="20">
         <v>0.98925686296012005</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="26">
+        <f t="shared" ref="I19:I22" si="6">AVERAGE(D19:G19)</f>
+        <v>0.95579249086372076</v>
+      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="19">
         <v>0.89818531280843605</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="20">
         <v>0.89808580541360294</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="20">
         <v>0.78215692499629097</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="20">
         <v>0.93989788810187502</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I20" s="13"/>
+      <c r="I20" s="26">
+        <f t="shared" si="6"/>
+        <v>0.87958148283005122</v>
+      </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="23"/>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="19">
         <v>0.91304511667781496</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="20">
         <v>0.91277690586462401</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="20">
         <v>0.82047232990143004</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="20">
         <v>0.92618728926431004</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I21" s="13"/>
+      <c r="I21" s="26">
+        <f t="shared" si="6"/>
+        <v>0.89312041042704471</v>
+      </c>
     </row>
     <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="27"/>
-      <c r="C22" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="B22" s="15"/>
+      <c r="C22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="21">
         <f>AVERAGE(D18:D21)</f>
         <v>0.92882426977419197</v>
       </c>
-      <c r="E22" s="1">
-        <f t="shared" ref="E22:G22" si="3">AVERAGE(E18:E21)</f>
+      <c r="E22" s="22">
+        <f t="shared" ref="E22:G22" si="7">AVERAGE(E18:E21)</f>
         <v>0.93178305808420392</v>
       </c>
-      <c r="F22" s="1">
-        <f t="shared" si="3"/>
+      <c r="F22" s="22">
+        <f t="shared" si="7"/>
         <v>0.8699054205112251</v>
       </c>
-      <c r="G22" s="1">
-        <f t="shared" si="3"/>
+      <c r="G22" s="22">
+        <f t="shared" si="7"/>
         <v>0.91757983760218698</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="14"/>
+      <c r="I22" s="32">
+        <f t="shared" si="6"/>
+        <v>0.91202314649295202</v>
+      </c>
     </row>
-    <row r="23" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="31" t="s">
+    <row r="23" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="16">
+      <c r="C23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="39">
+        <f>AVERAGE(D3:G3,D8:F8,D13:H13,D18:G18)</f>
+        <v>0.94456101130506076</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="40">
         <f>AVERAGE(D3:G6,D8:F11,D13:H16,D18:G21)</f>
         <v>0.92265986460324301</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="36"/>
+      <c r="C24" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="43">
+        <f>AVERAGE(D4:G4,D9:F9,D14:H14,D19:G19)</f>
+        <v>0.93697995383476995</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="41"/>
+    </row>
+    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="36"/>
+      <c r="C25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="43">
+        <f>AVERAGE(D5:G5,D10:F10,D15:H15,D20:G20)</f>
+        <v>0.89253311756477527</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="41"/>
+    </row>
+    <row r="26" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="37"/>
+      <c r="C26" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="44">
+        <f>AVERAGE(D6:G6,D11:F11,D16:H16,D21:G21)</f>
+        <v>0.91656537570836638</v>
+      </c>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="42"/>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G28" s="46"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="I13:I17"/>
-    <mergeCell ref="I18:I22"/>
-    <mergeCell ref="D23:I23"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="B18:B22"/>
+    <mergeCell ref="I23:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Efficiency.xlsx
+++ b/docs/Efficiency.xlsx
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,33 +79,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -516,142 +519,142 @@
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,9 +707,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -734,9 +737,9 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="pt-PT"/>
@@ -838,9 +841,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -848,9 +849,9 @@
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="pt-PT"/>
@@ -1007,9 +1008,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1017,9 +1016,9 @@
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="pt-PT"/>
@@ -1034,7 +1033,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1182,9 +1180,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1192,9 +1188,9 @@
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="pt-PT"/>
@@ -1209,7 +1205,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1324,9 +1319,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1334,9 +1327,9 @@
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="pt-PT"/>
@@ -1351,7 +1344,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1480,14 +1472,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-PT"/>
@@ -1525,9 +1514,9 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="pt-PT"/>
@@ -1562,6 +1551,8 @@
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="pt-PT"/>
@@ -1600,9 +1591,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -1630,9 +1621,9 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="pt-PT"/>
@@ -1705,9 +1696,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1715,9 +1704,9 @@
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="pt-PT"/>
@@ -1732,7 +1721,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1852,9 +1840,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1862,9 +1848,9 @@
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="pt-PT"/>
@@ -1879,7 +1865,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1999,9 +1984,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2009,9 +1992,9 @@
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="pt-PT"/>
@@ -2026,7 +2009,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2150,9 +2132,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2160,9 +2140,9 @@
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="pt-PT"/>
@@ -2177,7 +2157,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2286,14 +2265,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-PT"/>
@@ -2331,9 +2307,9 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="pt-PT"/>
@@ -2368,6 +2344,8 @@
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="pt-PT"/>
@@ -3838,7 +3816,7 @@
   <dimension ref="B1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="D18" activeCellId="3" sqref="D3:G6 D13:H16 D8:F11 D18:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3848,154 +3826,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="18"/>
-      <c r="D2" s="7">
+      <c r="D2" s="19">
         <v>1</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="20">
         <v>2</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="20">
         <v>3</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="20">
         <v>4</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="19">
         <v>5</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="2">
         <v>0.96104813840863801</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="3">
         <v>0.92688628727746702</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="3">
         <v>0.96309628961231197</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="3">
         <v>0.95702985878162905</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="23">
         <f>AVERAGE(D3:G3)</f>
         <v>0.95201514352001149</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="2">
         <v>0.93046276725685295</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="3">
         <v>0.901386773043519</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="3">
         <v>0.92610404834988203</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="3">
         <v>0.93330904513096702</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="23">
         <f t="shared" ref="I4:I6" si="0">AVERAGE(D4:G4)</f>
         <v>0.92281565844530522</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="2">
         <v>0.88867197876806903</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="3">
         <v>0.89445460377153996</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="3">
         <v>0.93676903802526001</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="3">
         <v>0.92693056856982703</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="23">
         <f t="shared" si="0"/>
         <v>0.91170654728367406</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="2">
         <v>0.94960046672684595</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="3">
         <v>0.88650808062466002</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="3">
         <v>0.89103127584431296</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="3">
         <v>0.96020767162892695</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="23">
         <f t="shared" si="0"/>
         <v>0.92183687370618639</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="24">
         <f>AVERAGE(D3:D6)</f>
         <v>0.93244583779010148</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="25">
         <f t="shared" ref="E7:G7" si="1">AVERAGE(E3:E6)</f>
         <v>0.90230893617929642</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="25">
         <f t="shared" si="1"/>
         <v>0.92925016295794183</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="25">
         <f t="shared" si="1"/>
         <v>0.94436928602783765</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="26" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="27">
@@ -4004,128 +3982,128 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="4">
         <v>0.95809263685332102</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="5">
         <v>0.87756657310534603</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="5">
         <v>0.94015158887461303</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="30">
         <f>AVERAGE(D8:F8)</f>
         <v>0.9252702662777601</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="2">
         <v>0.87813727145597098</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="3">
         <v>0.90518504732009197</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="3">
         <v>0.95558970661708398</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="23">
         <f t="shared" ref="I9:I12" si="2">AVERAGE(D9:F9)</f>
         <v>0.91297067513104901</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="2">
         <v>0.78790390262434695</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="3">
         <v>0.80050917757567996</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="3">
         <v>0.93820596630263797</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="23">
         <f t="shared" si="2"/>
         <v>0.84220634883422163</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="2">
         <v>0.82083310864140602</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="3">
         <v>0.913765310518031</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="3">
         <v>0.96102546031186697</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="23">
         <f t="shared" si="2"/>
         <v>0.89854129315710141</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="24">
         <f>AVERAGE(D8:D11)</f>
         <v>0.86124172989376124</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="25">
         <f t="shared" ref="E12:F12" si="3">AVERAGE(E8:E11)</f>
         <v>0.87425652712978719</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="25">
         <f t="shared" si="3"/>
         <v>0.94874318052655049</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="26" t="s">
         <v>0</v>
       </c>
       <c r="I12" s="27">
@@ -4134,350 +4112,350 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="4">
         <v>0.97950073542268801</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="5">
         <v>0.96253228150887005</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="5">
         <v>0.97885596266417196</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="5">
         <v>0.98076686207531605</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="4">
         <v>0.94905615889263395</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="6">
         <f>AVERAGE(D13:H13)</f>
         <v>0.97014240011273611</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="2">
         <v>0.98403131092545204</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="3">
         <v>0.892676884912466</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="3">
         <v>0.96215276001432504</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="3">
         <v>0.98978523802139895</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="2">
         <v>0.90968844485342504</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="7">
         <f t="shared" ref="I14:I17" si="4">AVERAGE(D14:H14)</f>
         <v>0.94766692774541339</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="2">
         <v>0.95445676743793895</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="3">
         <v>0.938878424987726</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="3">
         <v>0.94444044072075295</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="3">
         <v>0.82295545574366302</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="2">
         <v>0.92802762518875603</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="7">
         <f t="shared" si="4"/>
         <v>0.91775174281576744</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="2">
         <v>0.93345883550825104</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="3">
         <v>0.97427259759432405</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="3">
         <v>0.97188622685979698</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="3">
         <v>0.97412852034577602</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="2">
         <v>0.85584681502148796</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="7">
         <f t="shared" si="4"/>
         <v>0.94191859906592723</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15"/>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="24">
         <f>AVERAGE(D13:D16)</f>
         <v>0.96286191232358243</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="25">
         <f t="shared" ref="E17:G17" si="5">AVERAGE(E13:E16)</f>
         <v>0.94209004725084666</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="25">
         <f t="shared" si="5"/>
         <v>0.96433384756476181</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="25">
         <f t="shared" si="5"/>
         <v>0.94190901904653856</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="24">
         <f>AVERAGE(H13:H16)</f>
         <v>0.91065476098907583</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="33">
         <f t="shared" si="4"/>
         <v>0.94436991743496113</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="4">
         <v>0.95960240640802397</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="5">
         <v>0.96165227613604098</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="5">
         <v>0.94216081477745695</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="5">
         <v>0.81497731008244301</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="30">
         <f>AVERAGE(D18:G18)</f>
         <v>0.91959820185099128</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="2">
         <v>0.944464243202493</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="3">
         <v>0.95461724492254796</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="3">
         <v>0.93483161236972201</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="3">
         <v>0.98925686296012005</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="23">
         <f t="shared" ref="I19:I22" si="6">AVERAGE(D19:G19)</f>
         <v>0.95579249086372076</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="2">
         <v>0.89818531280843605</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="3">
         <v>0.89808580541360294</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="3">
         <v>0.78215692499629097</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="3">
         <v>0.93989788810187502</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="23">
         <f t="shared" si="6"/>
         <v>0.87958148283005122</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="2">
         <v>0.91304511667781496</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="3">
         <v>0.91277690586462401</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="3">
         <v>0.82047232990143004</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="3">
         <v>0.92618728926431004</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="23">
         <f t="shared" si="6"/>
         <v>0.89312041042704471</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="24">
         <f>AVERAGE(D18:D21)</f>
         <v>0.92882426977419197</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="25">
         <f t="shared" ref="E22:G22" si="7">AVERAGE(E18:E21)</f>
         <v>0.93178305808420392</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="25">
         <f t="shared" si="7"/>
         <v>0.8699054205112251</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="25">
         <f t="shared" si="7"/>
         <v>0.91757983760218698</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="32">
+      <c r="I22" s="34">
         <f t="shared" si="6"/>
         <v>0.91202314649295202</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="35">
         <f>AVERAGE(D3:G3,D8:F8,D13:H13,D18:G18)</f>
         <v>0.94456101130506076</v>
       </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="40">
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="8">
         <f>AVERAGE(D3:G6,D8:F11,D13:H16,D18:G21)</f>
         <v>0.92265986460324301</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="36"/>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="37">
         <f>AVERAGE(D4:G4,D9:F9,D14:H14,D19:G19)</f>
         <v>0.93697995383476995</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="41"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="36"/>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="37">
         <f>AVERAGE(D5:G5,D10:F10,D15:H15,D20:G20)</f>
         <v>0.89253311756477527</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="41"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="37"/>
-      <c r="C26" s="38" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="44">
+      <c r="D26" s="39">
         <f>AVERAGE(D6:G6,D11:F11,D16:H16,D21:G21)</f>
         <v>0.91656537570836638</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="42"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G28" s="46"/>
+      <c r="G28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="D23:H23"/>
     <mergeCell ref="D24:H24"/>
     <mergeCell ref="D25:H25"/>
     <mergeCell ref="D26:H26"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="I23:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Efficiency.xlsx
+++ b/docs/Efficiency.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="7320"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Eficiência" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -758,7 +758,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$3</c:f>
+              <c:f>Eficiência!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -884,7 +884,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$18</c:f>
+              <c:f>Eficiência!$B$3:$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -904,7 +904,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$7</c:f>
+              <c:f>Eficiência!$I$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -925,7 +925,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$8</c:f>
+              <c:f>Eficiência!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1052,7 +1052,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$18</c:f>
+              <c:f>Eficiência!$B$3:$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -1072,7 +1072,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$12</c:f>
+              <c:f>Eficiência!$I$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1093,7 +1093,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$13</c:f>
+              <c:f>Eficiência!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1224,7 +1224,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$18</c:f>
+              <c:f>Eficiência!$B$3:$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -1244,7 +1244,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$17</c:f>
+              <c:f>Eficiência!$I$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1265,7 +1265,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$18</c:f>
+              <c:f>Eficiência!$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1363,7 +1363,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$18</c:f>
+              <c:f>Eficiência!$B$3:$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -1383,7 +1383,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$22</c:f>
+              <c:f>Eficiência!$I$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1642,7 +1642,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$23</c:f>
+              <c:f>Eficiência!$C$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1740,7 +1740,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$23</c:f>
+              <c:f>Eficiência!$D$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1761,7 +1761,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$24</c:f>
+              <c:f>Eficiência!$C$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1884,7 +1884,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$24</c:f>
+              <c:f>Eficiência!$D$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1905,7 +1905,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$25</c:f>
+              <c:f>Eficiência!$C$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2028,7 +2028,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$25</c:f>
+              <c:f>Eficiência!$D$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2049,7 +2049,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$26</c:f>
+              <c:f>Eficiência!$C$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2176,7 +2176,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$26</c:f>
+              <c:f>Eficiência!$D$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3816,7 +3816,7 @@
   <dimension ref="B1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" activeCellId="3" sqref="D3:G6 D13:H16 D8:F11 D18:G21"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/Efficiency.xlsx
+++ b/docs/Efficiency.xlsx
@@ -520,13 +520,7 @@
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -536,39 +530,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -622,19 +583,7 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -653,6 +602,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -909,7 +909,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.92709355573879426</c:v>
+                  <c:v>0.92850238473372015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,7 +1077,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.89474714585003301</c:v>
+                  <c:v>0.90144776457696463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1249,7 +1249,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.94436991743496113</c:v>
+                  <c:v>0.94618204259944394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1388,7 +1388,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.91202314649295202</c:v>
+                  <c:v>0.91961059619543151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1745,7 +1745,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.94456101130506076</c:v>
+                  <c:v>0.95754729724803567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1889,7 +1889,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.93697995383476995</c:v>
+                  <c:v>0.93574224517892024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2033,7 +2033,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.89253311756477527</c:v>
+                  <c:v>0.89366925575543876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2181,7 +2181,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.91656537570836638</c:v>
+                  <c:v>0.91996755942878528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3816,7 +3816,7 @@
   <dimension ref="B1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3827,617 +3827,617 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19">
+      <c r="C2" s="34"/>
+      <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="7">
         <v>2</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="7">
         <v>3</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="7">
         <v>4</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="6">
         <v>5</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="23">
         <v>0.96104813840863801</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>0.92688628727746702</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>0.96309628961231197</v>
       </c>
-      <c r="G3" s="3">
-        <v>0.95702985878162905</v>
-      </c>
-      <c r="H3" s="22" t="s">
+      <c r="G3" s="2">
+        <v>0.95607168862116898</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="10">
         <f>AVERAGE(D3:G3)</f>
-        <v>0.95201514352001149</v>
+        <v>0.95177560097989655</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="23">
         <v>0.93046276725685295</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>0.901386773043519</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>0.92610404834988203</v>
       </c>
-      <c r="G4" s="3">
-        <v>0.93330904513096702</v>
-      </c>
-      <c r="H4" s="22" t="s">
+      <c r="G4" s="2">
+        <v>0.932004632322879</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="10">
         <f t="shared" ref="I4:I6" si="0">AVERAGE(D4:G4)</f>
-        <v>0.92281565844530522</v>
+        <v>0.92248955524328324</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="42" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="23">
         <v>0.88867197876806903</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>0.89445460377153996</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0.93676903802526001</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>0.92693056856982703</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="10">
         <f t="shared" si="0"/>
         <v>0.91170654728367406</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="43" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="23">
         <v>0.94960046672684595</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>0.88650808062466002</v>
       </c>
-      <c r="F6" s="3">
-        <v>0.89103127584431296</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="2">
+        <v>0.915835122731674</v>
+      </c>
+      <c r="G6" s="2">
         <v>0.96020767162892695</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="10">
         <f t="shared" si="0"/>
-        <v>0.92183687370618639</v>
+        <v>0.92803783542802676</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
-      <c r="C7" s="44" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="11">
         <f>AVERAGE(D3:D6)</f>
         <v>0.93244583779010148</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="12">
         <f t="shared" ref="E7:G7" si="1">AVERAGE(E3:E6)</f>
         <v>0.90230893617929642</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="12">
         <f t="shared" si="1"/>
-        <v>0.92925016295794183</v>
-      </c>
-      <c r="G7" s="25">
+        <v>0.93545112467978209</v>
+      </c>
+      <c r="G7" s="12">
         <f t="shared" si="1"/>
-        <v>0.94436928602783765</v>
-      </c>
-      <c r="H7" s="26" t="s">
+        <v>0.94380364028570063</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="14">
         <f>AVERAGE(D7:G7)</f>
-        <v>0.92709355573879426</v>
+        <v>0.92850238473372015</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4">
-        <v>0.95809263685332102</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.87756657310534603</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="D8" s="22">
+        <v>0.961064395060097</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.96476773497575696</v>
+      </c>
+      <c r="F8" s="3">
         <v>0.94015158887461303</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="17">
         <f>AVERAGE(D8:F8)</f>
-        <v>0.9252702662777601</v>
+        <v>0.95532790630348907</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="42" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="23">
         <v>0.87813727145597098</v>
       </c>
-      <c r="E9" s="3">
-        <v>0.90518504732009197</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="2">
+        <v>0.88764033273287901</v>
+      </c>
+      <c r="F9" s="2">
         <v>0.95558970661708398</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="10">
         <f t="shared" ref="I9:I12" si="2">AVERAGE(D9:F9)</f>
-        <v>0.91297067513104901</v>
+        <v>0.90712243693531125</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="42" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="2">
-        <v>0.78790390262434695</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="23">
+        <v>0.78912175532068696</v>
+      </c>
+      <c r="E10" s="2">
         <v>0.80050917757567996</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>0.93820596630263797</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="10">
         <f t="shared" si="2"/>
-        <v>0.84220634883422163</v>
+        <v>0.84261229973300156</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="23">
         <v>0.82083310864140602</v>
       </c>
-      <c r="E11" s="3">
-        <v>0.913765310518031</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="2">
+        <v>0.92032667705489701</v>
+      </c>
+      <c r="F11" s="2">
         <v>0.96102546031186697</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="10">
         <f t="shared" si="2"/>
-        <v>0.89854129315710141</v>
+        <v>0.90072841533605663</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="44" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="11">
         <f>AVERAGE(D8:D11)</f>
-        <v>0.86124172989376124</v>
-      </c>
-      <c r="E12" s="25">
+        <v>0.86228913261954021</v>
+      </c>
+      <c r="E12" s="12">
         <f t="shared" ref="E12:F12" si="3">AVERAGE(E8:E11)</f>
-        <v>0.87425652712978719</v>
-      </c>
-      <c r="F12" s="25">
+        <v>0.89331098058480318</v>
+      </c>
+      <c r="F12" s="12">
         <f t="shared" si="3"/>
         <v>0.94874318052655049</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="14">
         <f t="shared" si="2"/>
-        <v>0.89474714585003301</v>
+        <v>0.90144776457696463</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="22">
         <v>0.97950073542268801</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>0.96253228150887005</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>0.97885596266417196</v>
       </c>
-      <c r="G13" s="5">
-        <v>0.98076686207531605</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="G13" s="3">
+        <v>0.97993390911040501</v>
+      </c>
+      <c r="H13" s="22">
         <v>0.94905615889263395</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="4">
         <f>AVERAGE(D13:H13)</f>
-        <v>0.97014240011273611</v>
+        <v>0.96997580951975382</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="42" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="23">
         <v>0.98403131092545204</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>0.892676884912466</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>0.96215276001432504</v>
       </c>
-      <c r="G14" s="3">
-        <v>0.98978523802139895</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G14" s="2">
+        <v>0.98883102692310398</v>
+      </c>
+      <c r="H14" s="23">
         <v>0.90968844485342504</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="5">
         <f t="shared" ref="I14:I17" si="4">AVERAGE(D14:H14)</f>
-        <v>0.94766692774541339</v>
+        <v>0.94747608552575446</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="42" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="2">
-        <v>0.95445676743793895</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="23">
+        <v>0.95448703442720195</v>
+      </c>
+      <c r="E15" s="2">
         <v>0.938878424987726</v>
       </c>
-      <c r="F15" s="3">
-        <v>0.94444044072075295</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="2">
+        <v>0.961373642619618</v>
+      </c>
+      <c r="G15" s="2">
         <v>0.82295545574366302</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="23">
         <v>0.92802762518875603</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="5">
         <f t="shared" si="4"/>
-        <v>0.91775174281576744</v>
+        <v>0.92114443659339307</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="2">
-        <v>0.93345883550825104</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16" s="23">
+        <v>0.95452503397298405</v>
+      </c>
+      <c r="E16" s="2">
         <v>0.97427259759432405</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>0.97188622685979698</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>0.97412852034577602</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="23">
         <v>0.85584681502148796</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="5">
         <f t="shared" si="4"/>
-        <v>0.94191859906592723</v>
+        <v>0.94613183875887386</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="44" t="s">
+      <c r="B17" s="36"/>
+      <c r="C17" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="11">
         <f>AVERAGE(D13:D16)</f>
-        <v>0.96286191232358243</v>
-      </c>
-      <c r="E17" s="25">
+        <v>0.96813602868708148</v>
+      </c>
+      <c r="E17" s="12">
         <f t="shared" ref="E17:G17" si="5">AVERAGE(E13:E16)</f>
         <v>0.94209004725084666</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="12">
         <f t="shared" si="5"/>
-        <v>0.96433384756476181</v>
-      </c>
-      <c r="G17" s="25">
+        <v>0.96856714803947797</v>
+      </c>
+      <c r="G17" s="12">
         <f t="shared" si="5"/>
-        <v>0.94190901904653856</v>
-      </c>
-      <c r="H17" s="24">
+        <v>0.94146222803073709</v>
+      </c>
+      <c r="H17" s="11">
         <f>AVERAGE(H13:H16)</f>
         <v>0.91065476098907583</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="20">
         <f t="shared" si="4"/>
-        <v>0.94436991743496113</v>
+        <v>0.94618204259944394</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="22">
         <v>0.95960240640802397</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="3">
         <v>0.96165227613604098</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="3">
         <v>0.94216081477745695</v>
       </c>
-      <c r="G18" s="5">
-        <v>0.81497731008244301</v>
-      </c>
-      <c r="H18" s="29" t="s">
+      <c r="G18" s="3">
+        <v>0.93437608821822404</v>
+      </c>
+      <c r="H18" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="17">
         <f>AVERAGE(D18:G18)</f>
-        <v>0.91959820185099128</v>
+        <v>0.94944789638493654</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="42" t="s">
+      <c r="B19" s="35"/>
+      <c r="C19" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="23">
         <v>0.944464243202493</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>0.95461724492254796</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>0.93483161236972201</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>0.98925686296012005</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="10">
         <f t="shared" ref="I19:I22" si="6">AVERAGE(D19:G19)</f>
         <v>0.95579249086372076</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-      <c r="C20" s="42" t="s">
+      <c r="B20" s="35"/>
+      <c r="C20" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="2">
-        <v>0.89818531280843605</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="23">
+        <v>0.89818220227458501</v>
+      </c>
+      <c r="E20" s="2">
         <v>0.89808580541360294</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>0.78215692499629097</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>0.93989788810187502</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="10">
         <f t="shared" si="6"/>
-        <v>0.87958148283005122</v>
+        <v>0.87958070519658849</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="43" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="23">
         <v>0.91304511667781496</v>
       </c>
-      <c r="E21" s="3">
-        <v>0.91277690586462401</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="E21" s="2">
+        <v>0.91112461010943002</v>
+      </c>
+      <c r="F21" s="2">
         <v>0.82047232990143004</v>
       </c>
-      <c r="G21" s="3">
-        <v>0.92618728926431004</v>
-      </c>
-      <c r="H21" s="22" t="s">
+      <c r="G21" s="2">
+        <v>0.92984311265724495</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="10">
         <f t="shared" si="6"/>
-        <v>0.89312041042704471</v>
+        <v>0.89362129233648002</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="45" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="11">
         <f>AVERAGE(D18:D21)</f>
-        <v>0.92882426977419197</v>
-      </c>
-      <c r="E22" s="25">
+        <v>0.92882349214072923</v>
+      </c>
+      <c r="E22" s="12">
         <f t="shared" ref="E22:G22" si="7">AVERAGE(E18:E21)</f>
-        <v>0.93178305808420392</v>
-      </c>
-      <c r="F22" s="25">
+        <v>0.93136998414540551</v>
+      </c>
+      <c r="F22" s="12">
         <f t="shared" si="7"/>
         <v>0.8699054205112251</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="12">
         <f t="shared" si="7"/>
-        <v>0.91757983760218698</v>
-      </c>
-      <c r="H22" s="26" t="s">
+        <v>0.94834348798436596</v>
+      </c>
+      <c r="H22" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="34">
+      <c r="I22" s="21">
         <f t="shared" si="6"/>
-        <v>0.91202314649295202</v>
+        <v>0.91961059619543151</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="41">
         <f>AVERAGE(D3:G3,D8:F8,D13:H13,D18:G18)</f>
-        <v>0.94456101130506076</v>
-      </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="8">
+        <v>0.95754729724803567</v>
+      </c>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="30">
         <f>AVERAGE(D3:G6,D8:F11,D13:H16,D18:G21)</f>
-        <v>0.92265986460324301</v>
+        <v>0.92673158940279476</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="C24" s="42" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="43">
         <f>AVERAGE(D4:G4,D9:F9,D14:H14,D19:G19)</f>
-        <v>0.93697995383476995</v>
-      </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="9"/>
+        <v>0.93574224517892024</v>
+      </c>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="31"/>
     </row>
     <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="42" t="s">
+      <c r="B25" s="39"/>
+      <c r="C25" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="43">
         <f>AVERAGE(D5:G5,D10:F10,D15:H15,D20:G20)</f>
-        <v>0.89253311756477527</v>
-      </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="9"/>
+        <v>0.89366925575543876</v>
+      </c>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="16"/>
-      <c r="C26" s="46" t="s">
+      <c r="B26" s="40"/>
+      <c r="C26" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="45">
         <f>AVERAGE(D6:G6,D11:F11,D16:H16,D21:G21)</f>
-        <v>0.91656537570836638</v>
-      </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="10"/>
+        <v>0.91996755942878528</v>
+      </c>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="32"/>
     </row>
     <row r="27" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">

--- a/docs/Efficiency.xlsx
+++ b/docs/Efficiency.xlsx
@@ -909,7 +909,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.92850238473372015</c:v>
+                  <c:v>0.94665275845417385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,7 +1077,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.90144776457696463</c:v>
+                  <c:v>0.92448541355676106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1249,7 +1249,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.94618204259944394</c:v>
+                  <c:v>0.96022792942834445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1388,7 +1388,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.91961059619543151</c:v>
+                  <c:v>0.94157018726799824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1745,7 +1745,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.95754729724803567</c:v>
+                  <c:v>0.96107916081295974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1889,7 +1889,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.93574224517892024</c:v>
+                  <c:v>0.95239172686915874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2033,7 +2033,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.89366925575543876</c:v>
+                  <c:v>0.92913224897033098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2181,7 +2181,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.91996755942878528</c:v>
+                  <c:v>0.93926878102272382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3816,7 +3816,7 @@
   <dimension ref="B1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3858,23 +3858,23 @@
         <v>5</v>
       </c>
       <c r="D3" s="23">
-        <v>0.96104813840863801</v>
+        <v>0.97311012723234003</v>
       </c>
       <c r="E3" s="2">
-        <v>0.92688628727746702</v>
+        <v>0.95248661972274895</v>
       </c>
       <c r="F3" s="2">
-        <v>0.96309628961231197</v>
+        <v>0.962680006358413</v>
       </c>
       <c r="G3" s="2">
-        <v>0.95607168862116898</v>
+        <v>0.96911555518366699</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="10">
         <f>AVERAGE(D3:G3)</f>
-        <v>0.95177560097989655</v>
+        <v>0.96434807712429227</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -3883,23 +3883,23 @@
         <v>6</v>
       </c>
       <c r="D4" s="23">
-        <v>0.93046276725685295</v>
+        <v>0.96081507109275099</v>
       </c>
       <c r="E4" s="2">
-        <v>0.901386773043519</v>
+        <v>0.91437741246385795</v>
       </c>
       <c r="F4" s="2">
-        <v>0.92610404834988203</v>
+        <v>0.96140960014277699</v>
       </c>
       <c r="G4" s="2">
-        <v>0.932004632322879</v>
+        <v>0.93013958259819396</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="10">
         <f t="shared" ref="I4:I6" si="0">AVERAGE(D4:G4)</f>
-        <v>0.92248955524328324</v>
+        <v>0.94168541657439508</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -3908,23 +3908,23 @@
         <v>7</v>
       </c>
       <c r="D5" s="23">
-        <v>0.88867197876806903</v>
+        <v>0.89145664873881703</v>
       </c>
       <c r="E5" s="2">
-        <v>0.89445460377153996</v>
+        <v>0.93683091380332495</v>
       </c>
       <c r="F5" s="2">
-        <v>0.93676903802526001</v>
+        <v>0.95736874328004995</v>
       </c>
       <c r="G5" s="2">
-        <v>0.92693056856982703</v>
+        <v>0.96234291080604795</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>0</v>
       </c>
       <c r="I5" s="10">
         <f t="shared" si="0"/>
-        <v>0.91170654728367406</v>
+        <v>0.93699980415705997</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -3933,23 +3933,23 @@
         <v>8</v>
       </c>
       <c r="D6" s="23">
-        <v>0.94960046672684595</v>
+        <v>0.95372424077697004</v>
       </c>
       <c r="E6" s="2">
-        <v>0.88650808062466002</v>
+        <v>0.93092102921558795</v>
       </c>
       <c r="F6" s="2">
-        <v>0.915835122731674</v>
+        <v>0.90893208351152999</v>
       </c>
       <c r="G6" s="2">
-        <v>0.96020767162892695</v>
+        <v>0.98073359033970398</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>0</v>
       </c>
       <c r="I6" s="10">
         <f t="shared" si="0"/>
-        <v>0.92803783542802676</v>
+        <v>0.94357773596094807</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3959,26 +3959,26 @@
       </c>
       <c r="D7" s="11">
         <f>AVERAGE(D3:D6)</f>
-        <v>0.93244583779010148</v>
+        <v>0.94477652196021955</v>
       </c>
       <c r="E7" s="12">
         <f t="shared" ref="E7:G7" si="1">AVERAGE(E3:E6)</f>
-        <v>0.90230893617929642</v>
+        <v>0.93365399380137992</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="1"/>
-        <v>0.93545112467978209</v>
+        <v>0.94759760832319251</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="1"/>
-        <v>0.94380364028570063</v>
+        <v>0.96058290973190319</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="14">
         <f>AVERAGE(D7:G7)</f>
-        <v>0.92850238473372015</v>
+        <v>0.94665275845417385</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -3989,13 +3989,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="22">
-        <v>0.961064395060097</v>
+        <v>0.96420922910451701</v>
       </c>
       <c r="E8" s="3">
-        <v>0.96476773497575696</v>
+        <v>0.97583793508667904</v>
       </c>
       <c r="F8" s="3">
-        <v>0.94015158887461303</v>
+        <v>0.92386960507721705</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>0</v>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="I8" s="17">
         <f>AVERAGE(D8:F8)</f>
-        <v>0.95532790630348907</v>
+        <v>0.95463892308947107</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -4014,13 +4014,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="23">
-        <v>0.87813727145597098</v>
+        <v>0.94645253212709801</v>
       </c>
       <c r="E9" s="2">
-        <v>0.88764033273287901</v>
+        <v>0.91536893878833103</v>
       </c>
       <c r="F9" s="2">
-        <v>0.95558970661708398</v>
+        <v>0.95678290196595905</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>0</v>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="I9" s="10">
         <f t="shared" ref="I9:I12" si="2">AVERAGE(D9:F9)</f>
-        <v>0.90712243693531125</v>
+        <v>0.93953479096046266</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -4039,13 +4039,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="23">
-        <v>0.78912175532068696</v>
+        <v>0.83121518614123002</v>
       </c>
       <c r="E10" s="2">
-        <v>0.80050917757567996</v>
+        <v>0.86282904703478902</v>
       </c>
       <c r="F10" s="2">
-        <v>0.93820596630263797</v>
+        <v>0.93515452467745097</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>0</v>
@@ -4055,7 +4055,7 @@
       </c>
       <c r="I10" s="10">
         <f t="shared" si="2"/>
-        <v>0.84261229973300156</v>
+        <v>0.87639958595115663</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -4064,13 +4064,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="23">
-        <v>0.82083310864140602</v>
+        <v>0.88647459194362999</v>
       </c>
       <c r="E11" s="2">
-        <v>0.92032667705489701</v>
+        <v>0.93988024015925298</v>
       </c>
       <c r="F11" s="2">
-        <v>0.96102546031186697</v>
+        <v>0.95575023057497899</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>0</v>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="I11" s="10">
         <f t="shared" si="2"/>
-        <v>0.90072841533605663</v>
+        <v>0.92736835422595387</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4090,15 +4090,15 @@
       </c>
       <c r="D12" s="11">
         <f>AVERAGE(D8:D11)</f>
-        <v>0.86228913261954021</v>
+        <v>0.90708788482911873</v>
       </c>
       <c r="E12" s="12">
         <f t="shared" ref="E12:F12" si="3">AVERAGE(E8:E11)</f>
-        <v>0.89331098058480318</v>
+        <v>0.92347904026726302</v>
       </c>
       <c r="F12" s="12">
         <f t="shared" si="3"/>
-        <v>0.94874318052655049</v>
+        <v>0.94288931557390154</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>0</v>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="I12" s="14">
         <f t="shared" si="2"/>
-        <v>0.90144776457696463</v>
+        <v>0.92448541355676106</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -4119,23 +4119,23 @@
         <v>5</v>
       </c>
       <c r="D13" s="22">
-        <v>0.97950073542268801</v>
+        <v>0.98104149672941099</v>
       </c>
       <c r="E13" s="3">
-        <v>0.96253228150887005</v>
+        <v>0.97989656836235395</v>
       </c>
       <c r="F13" s="3">
-        <v>0.97885596266417196</v>
+        <v>0.97979016416160902</v>
       </c>
       <c r="G13" s="3">
-        <v>0.97993390911040501</v>
+        <v>0.98401559841285402</v>
       </c>
       <c r="H13" s="22">
-        <v>0.94905615889263395</v>
+        <v>0.96599753070088401</v>
       </c>
       <c r="I13" s="4">
         <f>AVERAGE(D13:H13)</f>
-        <v>0.96997580951975382</v>
+        <v>0.97814827167342244</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -4144,23 +4144,23 @@
         <v>6</v>
       </c>
       <c r="D14" s="23">
-        <v>0.98403131092545204</v>
+        <v>0.98000525443654996</v>
       </c>
       <c r="E14" s="2">
-        <v>0.892676884912466</v>
+        <v>0.95974514914567</v>
       </c>
       <c r="F14" s="2">
-        <v>0.96215276001432504</v>
+        <v>0.96520209967588899</v>
       </c>
       <c r="G14" s="2">
-        <v>0.98883102692310398</v>
+        <v>0.98451029972390203</v>
       </c>
       <c r="H14" s="23">
-        <v>0.90968844485342504</v>
+        <v>0.91274371446630598</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" ref="I14:I17" si="4">AVERAGE(D14:H14)</f>
-        <v>0.94747608552575446</v>
+        <v>0.96044130348966339</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -4169,23 +4169,23 @@
         <v>7</v>
       </c>
       <c r="D15" s="23">
-        <v>0.95448703442720195</v>
+        <v>0.94969930077609899</v>
       </c>
       <c r="E15" s="2">
-        <v>0.938878424987726</v>
+        <v>0.94345573138246297</v>
       </c>
       <c r="F15" s="2">
-        <v>0.961373642619618</v>
+        <v>0.96250113093742196</v>
       </c>
       <c r="G15" s="2">
-        <v>0.82295545574366302</v>
+        <v>0.97982529272958696</v>
       </c>
       <c r="H15" s="23">
-        <v>0.92802762518875603</v>
+        <v>0.92429894209694596</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="4"/>
-        <v>0.92114443659339307</v>
+        <v>0.95195607958450323</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -4194,23 +4194,23 @@
         <v>8</v>
       </c>
       <c r="D16" s="23">
-        <v>0.95452503397298405</v>
+        <v>0.95831930729677495</v>
       </c>
       <c r="E16" s="2">
-        <v>0.97427259759432405</v>
+        <v>0.97534014137467995</v>
       </c>
       <c r="F16" s="2">
-        <v>0.97188622685979698</v>
+        <v>0.97670271790194196</v>
       </c>
       <c r="G16" s="2">
-        <v>0.97412852034577602</v>
+        <v>0.97840336232289005</v>
       </c>
       <c r="H16" s="23">
-        <v>0.85584681502148796</v>
+        <v>0.86306478593265401</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="4"/>
-        <v>0.94613183875887386</v>
+        <v>0.95036606296578818</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4220,27 +4220,27 @@
       </c>
       <c r="D17" s="11">
         <f>AVERAGE(D13:D16)</f>
-        <v>0.96813602868708148</v>
+        <v>0.96726633980970878</v>
       </c>
       <c r="E17" s="12">
         <f t="shared" ref="E17:G17" si="5">AVERAGE(E13:E16)</f>
-        <v>0.94209004725084666</v>
+        <v>0.96460939756629172</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="5"/>
-        <v>0.96856714803947797</v>
+        <v>0.97104902816921546</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="5"/>
-        <v>0.94146222803073709</v>
+        <v>0.98168863829730824</v>
       </c>
       <c r="H17" s="11">
         <f>AVERAGE(H13:H16)</f>
-        <v>0.91065476098907583</v>
+        <v>0.91652624329919752</v>
       </c>
       <c r="I17" s="20">
         <f t="shared" si="4"/>
-        <v>0.94618204259944394</v>
+        <v>0.96022792942834445</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -4251,23 +4251,23 @@
         <v>5</v>
       </c>
       <c r="D18" s="22">
-        <v>0.95960240640802397</v>
+        <v>0.951575554432468</v>
       </c>
       <c r="E18" s="3">
-        <v>0.96165227613604098</v>
+        <v>0.95567559798296797</v>
       </c>
       <c r="F18" s="3">
-        <v>0.94216081477745695</v>
+        <v>0.93429135412554298</v>
       </c>
       <c r="G18" s="3">
-        <v>0.93437608821822404</v>
+        <v>0.92367363033368299</v>
       </c>
       <c r="H18" s="16" t="s">
         <v>0</v>
       </c>
       <c r="I18" s="17">
         <f>AVERAGE(D18:G18)</f>
-        <v>0.94944789638493654</v>
+        <v>0.94130403421866549</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -4276,23 +4276,23 @@
         <v>6</v>
       </c>
       <c r="D19" s="23">
-        <v>0.944464243202493</v>
+        <v>0.97667182876501701</v>
       </c>
       <c r="E19" s="2">
-        <v>0.95461724492254796</v>
+        <v>0.95855010597773704</v>
       </c>
       <c r="F19" s="2">
-        <v>0.93483161236972201</v>
+        <v>0.926734181589428</v>
       </c>
       <c r="G19" s="2">
-        <v>0.98925686296012005</v>
+        <v>0.98875895694707105</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>0</v>
       </c>
       <c r="I19" s="10">
         <f t="shared" ref="I19:I22" si="6">AVERAGE(D19:G19)</f>
-        <v>0.95579249086372076</v>
+        <v>0.96267876831981336</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -4301,23 +4301,23 @@
         <v>7</v>
       </c>
       <c r="D20" s="23">
-        <v>0.89818220227458501</v>
+        <v>0.95350635816810603</v>
       </c>
       <c r="E20" s="2">
-        <v>0.89808580541360294</v>
+        <v>0.91298708051164801</v>
       </c>
       <c r="F20" s="2">
-        <v>0.78215692499629097</v>
+        <v>0.90747897694936996</v>
       </c>
       <c r="G20" s="2">
-        <v>0.93989788810187502</v>
+        <v>0.95516519549194501</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>0</v>
       </c>
       <c r="I20" s="10">
         <f t="shared" si="6"/>
-        <v>0.87958070519658849</v>
+        <v>0.93228440278026725</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -4326,23 +4326,23 @@
         <v>8</v>
       </c>
       <c r="D21" s="23">
-        <v>0.91304511667781496</v>
+        <v>0.92562605351139404</v>
       </c>
       <c r="E21" s="2">
-        <v>0.91112461010943002</v>
+        <v>0.94129821318356699</v>
       </c>
       <c r="F21" s="2">
-        <v>0.82047232990143004</v>
+        <v>0.88951643641007605</v>
       </c>
       <c r="G21" s="2">
-        <v>0.92984311265724495</v>
+        <v>0.96361347190794999</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>0</v>
       </c>
       <c r="I21" s="10">
         <f t="shared" si="6"/>
-        <v>0.89362129233648002</v>
+        <v>0.93001354375324674</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4352,26 +4352,26 @@
       </c>
       <c r="D22" s="11">
         <f>AVERAGE(D18:D21)</f>
-        <v>0.92882349214072923</v>
+        <v>0.95184494871924619</v>
       </c>
       <c r="E22" s="12">
         <f t="shared" ref="E22:G22" si="7">AVERAGE(E18:E21)</f>
-        <v>0.93136998414540551</v>
+        <v>0.94212774941398003</v>
       </c>
       <c r="F22" s="12">
         <f t="shared" si="7"/>
-        <v>0.8699054205112251</v>
+        <v>0.91450523726860422</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="7"/>
-        <v>0.94834348798436596</v>
+        <v>0.95780281367016229</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>0</v>
       </c>
       <c r="I22" s="21">
         <f t="shared" si="6"/>
-        <v>0.91961059619543151</v>
+        <v>0.94157018726799824</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="D23" s="41">
         <f>AVERAGE(D3:G3,D8:F8,D13:H13,D18:G18)</f>
-        <v>0.95754729724803567</v>
+        <v>0.96107916081295974</v>
       </c>
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
@@ -4391,7 +4391,7 @@
       <c r="H23" s="42"/>
       <c r="I23" s="30">
         <f>AVERAGE(D3:G6,D8:F11,D13:H16,D18:G21)</f>
-        <v>0.92673158940279476</v>
+        <v>0.94546797941879324</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="D24" s="43">
         <f>AVERAGE(D4:G4,D9:F9,D14:H14,D19:G19)</f>
-        <v>0.93574224517892024</v>
+        <v>0.95239172686915874</v>
       </c>
       <c r="E24" s="44"/>
       <c r="F24" s="44"/>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="D25" s="43">
         <f>AVERAGE(D5:G5,D10:F10,D15:H15,D20:G20)</f>
-        <v>0.89366925575543876</v>
+        <v>0.92913224897033098</v>
       </c>
       <c r="E25" s="44"/>
       <c r="F25" s="44"/>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="D26" s="45">
         <f>AVERAGE(D6:G6,D11:F11,D16:H16,D21:G21)</f>
-        <v>0.91996755942878528</v>
+        <v>0.93926878102272382</v>
       </c>
       <c r="E26" s="46"/>
       <c r="F26" s="46"/>
